--- a/data/outputs/OR_elsevier/51.xlsx
+++ b/data/outputs/OR_elsevier/51.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BU36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84946184653</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1154,12 @@
           <t>2-s2.0-84930828835</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1371,12 @@
           <t>2-s2.0-84930829586</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1592,12 @@
           <t>2-s2.0-84920698825</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1774,6 +1808,12 @@
         <is>
           <t>2-s2.0-84945176882</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1978,6 +2018,12 @@
           <t>2-s2.0-84945449278</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2197,6 +2243,12 @@
           <t>2-s2.0-84945468564</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2414,6 +2466,12 @@
           <t>2-s2.0-84930872749</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2625,6 +2683,12 @@
           <t>2-s2.0-84926407170</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2832,6 +2896,12 @@
           <t>2-s2.0-84930868908</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3043,6 +3113,12 @@
           <t>2-s2.0-84930864496</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3254,6 +3330,12 @@
           <t>2-s2.0-84930865996</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3469,6 +3551,12 @@
           <t>2-s2.0-84920680682</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3684,6 +3772,12 @@
           <t>2-s2.0-84926416143</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3897,6 +3991,12 @@
           <t>2-s2.0-84945199894</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4109,6 +4209,12 @@
         <is>
           <t>2-s2.0-84930864344</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4309,6 +4415,12 @@
           <t>2-s2.0-84930855685</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4512,6 +4624,12 @@
           <t>2-s2.0-84920564821</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4723,6 +4841,12 @@
           <t>2-s2.0-84945196662</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4934,6 +5058,12 @@
           <t>2-s2.0-84945194555</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5136,6 +5266,12 @@
         <is>
           <t>2-s2.0-84945470489</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -5336,6 +5472,12 @@
           <t>2-s2.0-84930836982</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5547,6 +5689,12 @@
           <t>2-s2.0-84926408525</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5750,6 +5898,12 @@
           <t>2-s2.0-84926407564</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5963,6 +6117,12 @@
           <t>2-s2.0-84945460682</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6326,12 @@
           <t>2-s2.0-84930851036</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6369,6 +6535,12 @@
           <t>2-s2.0-84926419078</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6580,6 +6752,12 @@
           <t>2-s2.0-84926408302</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6783,6 +6961,12 @@
           <t>2-s2.0-84926372499</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6994,6 +7178,12 @@
           <t>2-s2.0-84926410319</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7204,6 +7394,12 @@
         <is>
           <t>2-s2.0-84926418152</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7408,6 +7604,12 @@
           <t>2-s2.0-84926415965</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7607,6 +7809,12 @@
           <t>2-s2.0-84911919853</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7819,6 +8027,12 @@
         <is>
           <t>2-s2.0-84920678179</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8033,6 +8247,12 @@
           <t>2-s2.0-84920567548</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
